--- a/DOC/数据库设计.xlsx
+++ b/DOC/数据库设计.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807CDEAA-9F4C-404D-897A-A4171C69D63C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321A737D-8232-4062-B53B-1E9CE0DA90AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据库表结构模板" sheetId="1" r:id="rId1"/>
+    <sheet name="用户表" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +53,108 @@
   </si>
   <si>
     <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储注册用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassWord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserRights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateTime</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.管理员
+2.普通用户
+3.游客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8~12位
+必须包括大写小写数字
+加密存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后登录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastLoginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增，初始自增值1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,16 +177,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -105,11 +230,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -117,9 +315,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="着色 3" xfId="1" builtinId="37"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,131 +623,509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="G3" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2D1C91-AA45-4524-871D-3E56E5AD1D5F}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="27.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87EB401-EBC8-4FF4-964B-358AAC17B112}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>